--- a/scripts Stata/Atual/Diff Media/resultados tStudent.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados tStudent.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528BD0B6-8AC1-4AA5-8238-4C55AD9CC746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D49AD-051A-4A4C-97B4-55D2DC73027F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="29355" windowHeight="11490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
     <sheet name="LegNE_RegNreg" sheetId="4" r:id="rId2"/>
     <sheet name="LegNE_ADR" sheetId="5" r:id="rId3"/>
-    <sheet name="Gráfico1" sheetId="7" r:id="rId4"/>
-    <sheet name="Planilha6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -517,6 +515,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,9 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,808 +544,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha6!$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C0FB-4916-A00B-A9DDC7067BC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1533260672"/>
-        <c:axId val="-1533262304"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1533260672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1533262304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1533262304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1533260672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1357,7 +553,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7600950" cy="2503506"/>
+    <xdr:ext cx="7600950" cy="2331279"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -1371,8 +567,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543176" y="4057650"/>
-          <a:ext cx="7600950" cy="2503506"/>
+          <a:off x="2547939" y="3851275"/>
+          <a:ext cx="7600950" cy="2331279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,9 +596,6 @@
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
@@ -2152,39 +1345,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9658945" cy="5968008"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC2A2E8-F86D-4605-A48B-33748336BACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2485,10 +1645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:N18"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,14 +1803,14 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="I10" s="15" t="s">
@@ -2869,6 +2032,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A2:N19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -3022,14 +2188,14 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="I10" s="15" t="s">
@@ -3243,10 +2409,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,14 +2564,14 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="I10" s="15" t="s">
@@ -3428,9 +2597,6 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" t="s">
         <v>1</v>
       </c>
@@ -3460,6 +2626,9 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" t="s">
         <v>2</v>
       </c>
@@ -3523,22 +2692,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I15" s="31">
+      <c r="I15" s="28">
         <v>2014</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="28">
         <v>1.181</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="28">
         <v>0.39700000000000002</v>
       </c>
     </row>
@@ -3612,35 +2781,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="D2:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/scripts Stata/Atual/Diff Media/resultados tStudent.xlsx
+++ b/scripts Stata/Atual/Diff Media/resultados tStudent.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D49AD-051A-4A4C-97B4-55D2DC73027F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AA06A4-29D1-4D13-A36F-18933093043E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="735" windowWidth="20145" windowHeight="13590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LegNE_GC" sheetId="3" r:id="rId1"/>
     <sheet name="LegNE_RegNreg" sheetId="4" r:id="rId2"/>
     <sheet name="LegNE_ADR" sheetId="5" r:id="rId3"/>
+    <sheet name="LegNE_AUDIT" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
   <si>
     <t>t(df)</t>
   </si>
@@ -351,18 +352,114 @@
   </si>
   <si>
     <t xml:space="preserve">0,8556 (38) </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>x e σ Audit = Não</t>
+  </si>
+  <si>
+    <t>x e σ Audit =Sim</t>
+  </si>
+  <si>
+    <t>30,54 (0,79)</t>
+  </si>
+  <si>
+    <t>27,60 (0,55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,1916 (38) </t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>30,41 (1,68)</t>
+  </si>
+  <si>
+    <t>28,44 (0,66)</t>
+  </si>
+  <si>
+    <t>* (38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,8264 (38) </t>
+  </si>
+  <si>
+    <t>28,56 (0,70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,5318 (38) </t>
+  </si>
+  <si>
+    <t>31,51 (3,04)</t>
+  </si>
+  <si>
+    <t>28,40 (0,65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4175 (38) </t>
+  </si>
+  <si>
+    <t>34,13 (1,75)</t>
+  </si>
+  <si>
+    <t>29,93 (2,50)</t>
+  </si>
+  <si>
+    <t>28,16 (0,63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,5964 (38) </t>
+  </si>
+  <si>
+    <t>34,90 (0,488)</t>
+  </si>
+  <si>
+    <t>28,87 (0,63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6864 (38) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela 11: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Audit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e índice de legibilidade da nota explicativa</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +492,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -452,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -521,10 +635,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +692,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>904876</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>135549</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>49823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7600950" cy="2331279"/>
     <xdr:sp macro="" textlink="">
@@ -567,7 +711,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547939" y="3851275"/>
+          <a:off x="1161318" y="3837842"/>
           <a:ext cx="7600950" cy="2331279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -644,7 +788,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Verificamos que temos 40 observações na amostra. </a:t>
+            <a:t>40 observações na amostra. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -696,13 +840,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -720,8 +864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13719175" y="1276350"/>
-          <a:ext cx="6178550" cy="2784475"/>
+          <a:off x="15284694" y="1276350"/>
+          <a:ext cx="6148021" cy="2778369"/>
           <a:chOff x="2904526" y="1933575"/>
           <a:chExt cx="6162675" cy="2990850"/>
         </a:xfrm>
@@ -1648,10 +1792,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N20"/>
+  <dimension ref="A2:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,14 +1805,14 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1714,7 +1858,7 @@
         <v>28.83456</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1737,7 +1881,7 @@
         <v>29.801870000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1759,11 +1903,11 @@
       <c r="G5" s="11">
         <v>28.8459</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1926,7 @@
         <v>0.89743479999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1793,7 +1937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1803,36 +1947,44 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1845,23 +1997,29 @@
       <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="17">
+        <v>19</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17">
+        <v>21</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="18">
+      <c r="N11" s="18">
         <v>-1.27</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="O11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="20">
+      <c r="P11" s="20">
         <v>0.24179999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1874,155 +2032,201 @@
       <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="17">
+        <v>19</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17">
+        <v>21</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="18">
+      <c r="N12" s="18">
         <v>-0.89100000000000001</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="20">
+      <c r="P12" s="20">
         <v>0.43240000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="17">
+        <v>19</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17">
+        <v>21</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="18">
+      <c r="N13" s="18">
         <v>-0.49299999999999999</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="20">
+      <c r="P13" s="20">
         <v>0.69920000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="17">
+        <v>18</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17">
+        <v>22</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="18">
+      <c r="N14" s="18">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="20">
+      <c r="P14" s="20">
         <v>0.9899</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="17">
+        <v>18</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="L15" s="17">
+        <v>22</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="18">
+      <c r="N15" s="18">
         <v>0.81</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="20">
+      <c r="P15" s="20">
         <v>0.55179999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="17">
+        <v>18</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17">
+        <v>22</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="18">
+      <c r="N16" s="18">
         <v>0.51500000000000001</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="O16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="20">
+      <c r="P16" s="20">
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="17">
+        <v>19</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="L17" s="17">
+        <v>21</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L17" s="18">
+      <c r="N17" s="18">
         <v>-1.8320000000000001</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="20">
+      <c r="P17" s="20">
         <v>0.15290000000000001</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I18" s="22">
         <v>2017</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22">
+        <v>16</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="23">
+        <v>24</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="24">
+      <c r="N18" s="24">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="O18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="26">
+      <c r="P18" s="26">
         <v>0.99309999999999998</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="29"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I9:P9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2035,10 +2239,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:N9"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,15 +2252,15 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2079,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2102,7 +2306,7 @@
         <v>28.83456</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2125,7 +2329,7 @@
         <v>29.801870000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2148,7 +2352,7 @@
         <v>28.8459</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2167,7 +2371,7 @@
         <v>0.89743479999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2188,36 +2392,44 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2230,23 +2442,29 @@
       <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="17">
+        <v>28</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17">
+        <v>12</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="18">
+      <c r="N11" s="18">
         <v>1.1702239999999999</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="O11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="20">
+      <c r="P11" s="20">
         <v>0.32650000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2259,148 +2477,190 @@
       <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="17">
+        <v>28</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17">
+        <v>12</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="18">
+      <c r="N12" s="18">
         <v>1.165</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="20">
+      <c r="P12" s="20">
         <v>0.34560000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="17">
+        <v>28</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17">
+        <v>12</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="18">
+      <c r="N13" s="18">
         <v>2.2109000000000001</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="20">
+      <c r="P13" s="20">
         <v>0.10630000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="17">
+        <v>28</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17">
+        <v>12</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="18">
+      <c r="N14" s="18">
         <v>2.08</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="20">
+      <c r="P14" s="20">
         <v>0.1583</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I15" s="17">
         <v>2014</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="17">
+        <v>28</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="L15" s="17">
+        <v>12</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="18">
+      <c r="N15" s="18">
         <v>2.7949999999999999</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="O15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="20">
+      <c r="P15" s="20">
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="17">
+        <v>28</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17">
+        <v>12</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="18">
+      <c r="N16" s="18">
         <v>2.746</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="O16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="20">
+      <c r="P16" s="20">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="17">
+        <v>28</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="L17" s="17">
+        <v>12</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="18">
+      <c r="N17" s="18">
         <v>2.0670000000000002</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="20">
+      <c r="P17" s="20">
         <v>0.1384</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I18" s="22">
         <v>2017</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22">
+        <v>28</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="23">
+        <v>12</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="24">
+      <c r="N18" s="24">
         <v>1.7609999999999999</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="O18" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="26">
+      <c r="P18" s="26">
         <v>0.1545</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="20"/>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I9:P9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2412,10 +2672,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,14 +2685,14 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +2715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2478,7 +2738,7 @@
         <v>28.83456</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2501,7 +2761,7 @@
         <v>29.801870000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +2784,7 @@
         <v>28.8459</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2543,7 +2803,7 @@
         <v>0.89743479999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2554,7 +2814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2564,36 +2824,44 @@
       <c r="G9" s="5">
         <v>38</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="O10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2603,23 +2871,29 @@
       <c r="I11" s="17">
         <v>2010</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="17">
+        <v>25</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17">
+        <v>15</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="18">
+      <c r="N11" s="18">
         <v>0.95430000000000004</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="O11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="20">
+      <c r="P11" s="20">
         <v>0.3987</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2635,148 +2909,543 @@
       <c r="I12" s="17">
         <v>2011</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="17">
+        <v>15</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="17">
+        <v>15</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="18">
+      <c r="N12" s="18">
         <v>0.30769999999999997</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="20">
+      <c r="P12" s="20">
         <v>0.79359999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I13" s="17">
         <v>2012</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="17">
+        <v>25</v>
+      </c>
+      <c r="K13" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="17">
+        <v>15</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="18">
+      <c r="N13" s="18">
         <v>1.5914999999999999</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="20">
+      <c r="P13" s="20">
         <v>0.22270000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I14" s="17">
         <v>2013</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="17">
+        <v>25</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17">
+        <v>15</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="18">
+      <c r="N14" s="18">
         <v>1.093</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="20">
+      <c r="P14" s="20">
         <v>0.43780000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I15" s="28">
         <v>2014</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="28">
+        <v>25</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="L15" s="28">
+        <v>15</v>
+      </c>
+      <c r="M15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="28">
+      <c r="N15" s="28">
         <v>1.181</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="O15" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="28">
+      <c r="P15" s="28">
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I16" s="17">
         <v>2015</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="17">
+        <v>25</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17">
+        <v>15</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="18">
+      <c r="N16" s="18">
         <v>2.0590000000000002</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="O16" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="20">
+      <c r="P16" s="20">
         <v>0.12570000000000001</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I17" s="17">
         <v>2016</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="17">
+        <v>25</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="L17" s="17">
+        <v>15</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="18">
+      <c r="N17" s="18">
         <v>1.8011999999999999</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="20">
+      <c r="P17" s="20">
         <v>0.17369999999999999</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I18" s="22">
         <v>2017</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22">
+        <v>25</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="L18" s="23">
+        <v>15</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="24">
+      <c r="N18" s="24">
         <v>0.76859999999999995</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="O18" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="26">
+      <c r="P18" s="26">
         <v>0.5161</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="K19" s="27"/>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I9:P9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEABBFEF-125B-43FB-9688-670A93BB9E1C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="I9" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="17">
+        <v>2010</v>
+      </c>
+      <c r="J11" s="30">
+        <v>2</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="30">
+        <v>38</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2.9333999999999998</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0.24079999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2011</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>30.5</v>
+      </c>
+      <c r="L12" s="30">
+        <v>39</v>
+      </c>
+      <c r="M12" s="30">
+        <v>28.5</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I13" s="17">
+        <v>2012</v>
+      </c>
+      <c r="J13" s="30">
+        <v>3</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="30">
+        <v>37</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="31">
+        <v>1.9717</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="39">
+        <v>0.41370000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" s="17">
+        <v>2013</v>
+      </c>
+      <c r="J14" s="30">
+        <v>3</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="30">
+        <v>37</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="31">
+        <v>1.3685</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="39">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I15" s="34">
+        <v>2014</v>
+      </c>
+      <c r="J15" s="38">
+        <v>4</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="38">
+        <v>36</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="31">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="P15" s="39">
+        <v>0.16450000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I16" s="17">
+        <v>2015</v>
+      </c>
+      <c r="J16" s="30">
+        <v>3</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="30">
+        <v>37</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="31">
+        <v>5.9690000000000003</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="40">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I17" s="17">
+        <v>2016</v>
+      </c>
+      <c r="J17" s="30">
+        <v>3</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="30">
+        <v>37</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="31">
+        <v>6.0270000000000001</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="41">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="22">
+        <v>2017</v>
+      </c>
+      <c r="J18" s="22">
+        <v>1</v>
+      </c>
+      <c r="K18" s="23">
+        <v>37</v>
+      </c>
+      <c r="L18" s="23">
+        <v>39</v>
+      </c>
+      <c r="M18" s="22">
+        <v>29.62</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="M19" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:P9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
